--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="49">
   <si>
     <t>Impact</t>
   </si>
@@ -38,34 +38,130 @@
     <t>SSP2-RCP26_2040</t>
   </si>
   <si>
+    <t>SSP2-RCP19_2050</t>
+  </si>
+  <si>
+    <t>SSP2-RCP26_2050</t>
+  </si>
+  <si>
     <t>evacuated tube collector production</t>
   </si>
   <si>
+    <t>heat pump production, brine-water, 10kW</t>
+  </si>
+  <si>
+    <t>hot water tank production, 600l</t>
+  </si>
+  <si>
+    <t>polyethylene production, high density, granulate</t>
+  </si>
+  <si>
+    <t>steel production, converter, low-alloyed</t>
+  </si>
+  <si>
+    <t>treatment of scrap steel, municipal incineration with fly ash extraction</t>
+  </si>
+  <si>
+    <t>ventilation duct production, steel, 100x50 mm</t>
+  </si>
+  <si>
+    <t>ceramic tile production</t>
+  </si>
+  <si>
+    <t>concrete production, 25MPa, for building construction, for interior use, with cement ZN/D, with 50% RC-C aggregates</t>
+  </si>
+  <si>
+    <t>concrete production, 50MPa, with cement, CEM II/B</t>
+  </si>
+  <si>
+    <t>concrete roof tile production</t>
+  </si>
+  <si>
+    <t>door production, outer, wood-aluminium</t>
+  </si>
+  <si>
+    <t>door production, outer, wood-glass</t>
+  </si>
+  <si>
+    <t>fibre cement corrugated slab production</t>
+  </si>
+  <si>
+    <t>fibre cement roof slate production</t>
+  </si>
+  <si>
+    <t>flat glass production, coated</t>
+  </si>
+  <si>
+    <t>gypsum plasterboard production</t>
+  </si>
+  <si>
+    <t>market for concrete slab</t>
+  </si>
+  <si>
+    <t>market for plywood</t>
+  </si>
+  <si>
+    <t>market for waste gypsum</t>
+  </si>
+  <si>
+    <t>polyethylene production, low density, granulate</t>
+  </si>
+  <si>
+    <t>polystyrene foam slab production</t>
+  </si>
+  <si>
+    <t>steel production, low-alloyed, hot rolled</t>
+  </si>
+  <si>
+    <t>treatment of waste concrete, inert material landfill</t>
+  </si>
+  <si>
+    <t>treatment of waste expanded polystyrene, municipal incineration</t>
+  </si>
+  <si>
+    <t>treatment of waste fibreboard, collection for final disposal</t>
+  </si>
+  <si>
+    <t>treatment of waste glass, municipal incineration</t>
+  </si>
+  <si>
+    <t>treatment of waste glass, municipal incineration with fly ash extraction</t>
+  </si>
+  <si>
+    <t>treatment of waste mineral wool, recycling</t>
+  </si>
+  <si>
+    <t>treatment of waste reinforcement steel, recycling</t>
+  </si>
+  <si>
+    <t>window frame production, wood, U=1.5 W/m2K</t>
+  </si>
+  <si>
+    <t>wood wool production</t>
+  </si>
+  <si>
+    <t>fibreboard production, hard</t>
+  </si>
+  <si>
+    <t>heat pump production</t>
+  </si>
+  <si>
+    <t>polyethylene production, high density, granulate, recycled</t>
+  </si>
+  <si>
     <t>gas boiler production</t>
   </si>
   <si>
-    <t>hot water tank production, 600l</t>
-  </si>
-  <si>
-    <t>polyethylene production, high density, granulate</t>
-  </si>
-  <si>
-    <t>steel production, converter, low-alloyed</t>
-  </si>
-  <si>
-    <t>treatment of scrap steel, municipal incineration with fly ash extraction</t>
-  </si>
-  <si>
-    <t>ventilation duct production, steel, 100x50 mm</t>
-  </si>
-  <si>
-    <t>fibreboard production, hard</t>
-  </si>
-  <si>
-    <t>polyethylene production, high density, granulate, recycled</t>
-  </si>
-  <si>
-    <t>steel production, low-alloyed, hot rolled</t>
+    <t>concrete_foundation_production</t>
+  </si>
+  <si>
+    <t>polystyrene foam slab production, 45% recycled</t>
+  </si>
+  <si>
+    <t>glass wool mat production</t>
+  </si>
+  <si>
+    <t>window frame production, aluminium, U=1.6 W/m2K</t>
   </si>
 </sst>
 </file>
@@ -423,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>487.7152654386961</v>
@@ -468,7 +564,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>121.928816359674</v>
@@ -478,23 +574,23 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>373.4750072926041</v>
+        <v>1480.168962142713</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>598.9502882688827</v>
@@ -504,10 +600,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>32.97016155858931</v>
@@ -518,7 +614,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>613.6113401181899</v>
@@ -528,10 +624,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>189.0912455831478</v>
@@ -541,10 +637,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>-0.2347998697309032</v>
@@ -555,7 +651,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.0293499837163629</v>
@@ -566,7 +662,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>-0.0293499837163629</v>
@@ -577,7 +673,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>-0.5282997068945321</v>
@@ -588,7 +684,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>-2.876298404203564</v>
@@ -599,7 +695,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>-23.47998697309032</v>
@@ -610,7 +706,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>-5.752596808407128</v>
@@ -620,10 +716,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>1012.754225541262</v>
@@ -635,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>615.360810719548</v>
@@ -649,7 +745,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>153.840202679887</v>
@@ -659,23 +755,23 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>430.4561265718593</v>
+        <v>1541.589229191439</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>694.3240495184873</v>
@@ -685,10 +781,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>33.52265298489623</v>
@@ -699,7 +795,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>623.8938194411244</v>
@@ -709,10 +805,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>197.0916188464487</v>
@@ -722,10 +818,10 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>-0.2382851181193819</v>
@@ -736,7 +832,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>-0.02978563976492274</v>
@@ -747,7 +843,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>-0.02978563976492274</v>
@@ -758,7 +854,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>-0.5361415157686094</v>
@@ -769,7 +865,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>-2.918992696962428</v>
@@ -780,7 +876,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>-23.82851181193819</v>
@@ -791,7 +887,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>-5.837985393924857</v>
@@ -801,26 +897,1391 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>1118.851508557393</v>
       </c>
     </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>964.8925370486701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>102349.8196816092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>12377.4389869247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>1444.320844575197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>643.6762849652481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>2699.925821845839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>472.7429866846608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>118.1857466711652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>309.5169503966407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>424.9810586777958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>64.22500414894883</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>117.6374117886103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>1474.428136765027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>586.7388041562865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>45200.76442951628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>-1497.560908925186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>-10.8180452893778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>-0.02024166478261959</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>33.21964847834807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>618.2545689025891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>279.948927305289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>2725.4737519751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <v>3268.843518982794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>188.2592210917236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>1460.549298284404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>-0.2345184480035128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>-0.0293148060004391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>-0.0293148060004391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>-0.5276665080079038</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>-2.872850988043032</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>-23.45184480035128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>-5.745701976086064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>-3.371001336380158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>-41.40849392439294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>-0.1866298317719118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>-4.041702294310466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68">
+        <v>-0.4969019270927153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>-1987.403099820143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>-19.65119613245999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>-65.03610148599853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72">
+        <v>-259.5490942265158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>-3.119237481342855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74">
+        <v>-360.484853092383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75">
+        <v>-161.0165677145978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76">
+        <v>-76.4227888555852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77">
+        <v>-364.3300248587018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>-1.786492021858583</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79">
+        <v>-1.786492021858583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>-48.65702015844345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81">
+        <v>-1.324143529149865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83">
+        <v>-0.0616527938217658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>1002.397638797166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85">
+        <v>-1881.393194055796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>-16182.15670498422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>1001.117426770374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>102514.1925263166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89">
+        <v>12402.15468542875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>1467.844025273328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>412.9619220566129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>2216.603941098289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>494.7711322448843</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94">
+        <v>123.6927830612211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>319.6166760111503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>438.8312649212732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>64.83750925610418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98">
+        <v>125.2734731774612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99">
+        <v>1488.911306804347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>601.9823039822779</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101">
+        <v>48336.87180990397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>-1439.866903437566</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103">
+        <v>-10.9207570270344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104">
+        <v>-0.02043384890713298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>33.74746272650751</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106">
+        <v>628.077778521112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107">
+        <v>288.8004751262142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>2755.847422945755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109">
+        <v>3305.272700305194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>190.1285043487279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111">
+        <v>1482.199839719816</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>-0.2352410126713988</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113">
+        <v>-0.02940512658392485</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>-0.02940512658392485</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>-0.5292922785106473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>-2.881702405224635</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>-23.52410126713988</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <v>-5.763404810449271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>-3.392358906550817</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>-41.67084469984568</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>-0.1878122578021214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122">
+        <v>-4.067309208027191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123">
+        <v>-0.5000501363981482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124">
+        <v>-1987.512364017482</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>-19.65260927095159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>-65.04077830148266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127">
+        <v>-259.5682574565344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128">
+        <v>-3.119461789039935</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E129">
+        <v>-360.5114686896311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130">
+        <v>-161.0284560147019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <v>-76.42843136220179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132">
+        <v>-364.3569243556539</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>-1.791316597429854</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134">
+        <v>-1.791316597429854</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>-48.94459233430521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136">
+        <v>-1.331969467413058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138">
+        <v>-0.06177056162685646</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139">
+        <v>1057.831735227921</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140">
+        <v>-2578.544410734704</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>-16145.27177029992</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="30">
     <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A32:A141"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B32:B86"/>
+    <mergeCell ref="B87:B141"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C125:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -828,7 +2289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -859,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>16.02819515979166</v>
@@ -873,7 +2334,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>4.007048789947916</v>
@@ -883,23 +2344,23 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>4.605821282151615</v>
+        <v>13.12640709804067</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>2.881731206641944</v>
@@ -909,10 +2370,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0.1079376435571153</v>
@@ -923,7 +2384,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>2.008839477312979</v>
@@ -933,10 +2394,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0.7511593942267285</v>
@@ -946,10 +2407,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>-0.0005896878123749857</v>
@@ -960,7 +2421,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-7.371097654687322E-05</v>
@@ -971,7 +2432,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>-7.371097654687322E-05</v>
@@ -982,7 +2443,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>-0.001326797577843718</v>
@@ -993,7 +2454,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>-0.007223675701593575</v>
@@ -1004,7 +2465,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>-0.05896878123749857</v>
@@ -1015,7 +2476,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>-0.01444735140318715</v>
@@ -1025,10 +2486,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>44.65963013784857</v>
@@ -1040,10 +2501,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>16.34036277597026</v>
@@ -1054,7 +2515,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>4.085090693992566</v>
@@ -1064,23 +2525,23 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>4.741022770465057</v>
+        <v>13.25969187803539</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>3.121266685882704</v>
@@ -1090,10 +2551,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0.1071594178882021</v>
@@ -1104,7 +2565,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1.994355832919317</v>
@@ -1114,10 +2575,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0.7715233593288239</v>
@@ -1127,10 +2588,10 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>-0.0005965790089887522</v>
@@ -1141,7 +2602,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>-7.457237612359403E-05</v>
@@ -1152,7 +2613,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>-7.457237612359403E-05</v>
@@ -1163,7 +2624,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>-0.001342302770224692</v>
@@ -1174,7 +2635,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>-0.007308092860112214</v>
@@ -1185,7 +2646,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>-0.05965790089887522</v>
@@ -1196,7 +2657,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>-0.01461618572022443</v>
@@ -1206,26 +2667,1391 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>44.79647981144196</v>
       </c>
     </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>9.153985436393342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>233.0817620273668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>36.81013754381181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>6.362655288680939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>9.500627446675177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>33.23731463524561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>16.02798366495267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>4.006995916238167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>1.067012924026167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>1.619439186541774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>0.6555262479098909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>0.7446056954182153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>13.13161608283996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>2.87604330440229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>203.0400338471116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>5.660986095448874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>-9.322625215258117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>-0.01744358148385095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>0.1086991800392218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>2.023012517396628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>0.9457842030461229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>10.039915704363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <v>12.04154446820752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>0.7515772580348505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>6.093534782260276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>-0.0005898701749365953</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>-7.373377186707441E-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>-7.373377186707441E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>-0.00132720789360734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>-0.007225909642973293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>-0.05898701749365953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>-0.01445181928594659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>-0.02058820630066691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>-0.2529001119978115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>-0.001139831490694362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>-0.02468447572034977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68">
+        <v>-0.003034801343973739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>-0.2162928957195613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>-0.004089792960105065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>-0.01353526717749057</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72">
+        <v>-0.3108684219012977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>-0.0006491734857309627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74">
+        <v>-0.4317616970851356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75">
+        <v>-0.1928535580313606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76">
+        <v>-0.09153347978204876</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77">
+        <v>-0.4363671551873771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>-0.01355176340240177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79">
+        <v>-0.01355176340240177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>-0.2034235331878149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81">
+        <v>-0.005535932004679197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83">
+        <v>-0.000566577852361655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>44.69849318927319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85">
+        <v>36.66261694831813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>2.779148882918228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>9.023329024640395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>232.4229119222535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89">
+        <v>36.8389514576937</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>6.324889035745846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>8.794911896250126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>31.61640782242666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>16.02305540467583</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94">
+        <v>4.005763851168958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>1.042400780252214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>1.587002340164259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>0.6535538646396396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98">
+        <v>0.7350690078643696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99">
+        <v>13.11764414920586</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>2.878142749900856</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101">
+        <v>204.9571150678796</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>5.575167994848658</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103">
+        <v>-9.322453654614575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104">
+        <v>-0.01744326047640981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>0.1077050839920527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106">
+        <v>2.004511285407648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107">
+        <v>0.9310700500531874</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>9.99808166228061</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109">
+        <v>11.99137009495048</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>0.7513060659454472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111">
+        <v>6.089419308645019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>-0.0005889522758096228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113">
+        <v>-7.361903447620285E-05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>-7.361903447620285E-05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>-0.001325142620571651</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>-0.007214665378667879</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>-0.05889522758096227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <v>-0.01442933075733576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>-0.0205625469036983</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>-0.2525849187132491</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>-0.001138410901242813</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122">
+        <v>-0.02465371108003966</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123">
+        <v>-0.003031019024558989</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124">
+        <v>-0.2162166523818274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>-0.004088000387044909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>-0.01352933461426768</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127">
+        <v>-0.3108371750867611</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128">
+        <v>-0.0006488889503245887</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E129">
+        <v>-0.4317182987316125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130">
+        <v>-0.1928341734334536</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <v>-0.09152427933110187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132">
+        <v>-0.4363232939180831</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>-0.01354674620349279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134">
+        <v>-0.01354674620349279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>-0.2030026973262338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136">
+        <v>-0.005524479452074614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138">
+        <v>-0.0005665662545056411</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139">
+        <v>44.60098388331622</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140">
+        <v>33.88141308923725</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>2.723195411459326</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="30">
     <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A32:A141"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B32:B86"/>
+    <mergeCell ref="B87:B141"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C125:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
